--- a/Our_Approach/hyperparam_tuning_&_results.xlsx
+++ b/Our_Approach/hyperparam_tuning_&_results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B559175-61D7-4938-830F-3B4F097789C9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379BB98C-2099-403A-99F7-ACD55C3000C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMF" sheetId="1" r:id="rId1"/>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4F1609-C665-4FD7-B347-41E66423C171}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Our_Approach/hyperparam_tuning_&_results.xlsx
+++ b/Our_Approach/hyperparam_tuning_&_results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379BB98C-2099-403A-99F7-ACD55C3000C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5515014A-0255-4504-AEFD-D7B357F05B1C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GMF" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="16">
   <si>
     <t>learning_rate</t>
   </si>
@@ -93,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +103,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +160,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,178 +448,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="I1">
+      <c r="H1">
         <v>21</v>
       </c>
+      <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1E-4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>1.2410000000000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>-1.6999999999999999E-3</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>1.2421</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>-3.5000000000000001E-3</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>1E-3</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6"/>
+      <c r="D5" s="1">
         <v>1.2410000000000001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>-1.6999999999999999E-3</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>1.2405999999999999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>-1.6000000000000001E-3</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>0.01</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6"/>
+      <c r="D7" s="4">
         <v>1.2408999999999999</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>-1.5E-3</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C8" s="6"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>0.01</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6"/>
+      <c r="D10" s="1">
         <v>1.2408999999999999</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>-1.5E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>0.01</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6"/>
+      <c r="D13" s="1">
         <v>1.2408999999999999</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>-1.5E-3</v>
       </c>
     </row>
@@ -617,10 +642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200DAB80-E3E7-4E73-A2C4-471D9FD695F0}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,30 +654,35 @@
     <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="11"/>
     <col min="6" max="6" width="8.7265625" style="16"/>
+    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K1">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -661,7 +691,7 @@
       <c r="D2" s="2"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.01</v>
       </c>
@@ -678,7 +708,7 @@
         <v>-1.8E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.01</v>
       </c>
@@ -695,7 +725,7 @@
         <v>-1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.01</v>
       </c>
@@ -712,7 +742,7 @@
         <v>-1.4E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>1E-3</v>
       </c>
@@ -730,7 +760,7 @@
         <v>0.15210000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1E-3</v>
       </c>
@@ -747,7 +777,7 @@
         <v>0.15129999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1E-3</v>
       </c>
@@ -764,7 +794,7 @@
         <v>0.14979999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -781,7 +811,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -789,7 +819,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>1E-3</v>
       </c>
@@ -807,13 +837,13 @@
         <v>0.16309999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -821,7 +851,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>1E-3</v>
       </c>
@@ -868,33 +898,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4F1609-C665-4FD7-B347-41E66423C171}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -903,7 +941,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>0.01</v>
       </c>
@@ -918,7 +956,7 @@
         <v>0.15279999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -932,7 +970,7 @@
         <v>0.15279999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1E-3</v>
       </c>
@@ -946,7 +984,7 @@
         <v>0.14630000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -960,12 +998,12 @@
         <v>0.14649999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>0.01</v>
       </c>
@@ -979,12 +1017,12 @@
         <v>0.15609999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>0.01</v>
       </c>
@@ -998,12 +1036,12 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>0.01</v>
       </c>
@@ -1024,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84492949-C446-4758-88DA-4A25FAE32C8D}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1035,29 +1073,39 @@
     <col min="1" max="1" width="11.90625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.7265625" style="10"/>
     <col min="4" max="5" width="8.7265625" style="11"/>
-    <col min="6" max="16384" width="8.7265625" style="10"/>
+    <col min="6" max="6" width="8.7265625" style="10"/>
+    <col min="7" max="7" width="15.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>0.01</v>
       </c>
@@ -1071,7 +1119,7 @@
         <v>-1.8E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1085,7 +1133,7 @@
         <v>-1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>1E-3</v>
       </c>
@@ -1099,7 +1147,7 @@
         <v>0.14910000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1114,12 +1162,12 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1133,12 +1181,12 @@
         <v>0.16250000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -1152,12 +1200,12 @@
         <v>0.17330000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>5.0000000000000001E-4</v>
       </c>
